--- a/其他/省考/错题记录.xlsx
+++ b/其他/省考/错题记录.xlsx
@@ -4,19 +4,249 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="省考错题模板" sheetId="1" r:id="rId1"/>
-    <sheet name="省考错题" sheetId="2" r:id="rId2"/>
+    <sheet name="省考错题" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>试卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目内容</t>
+  </si>
+  <si>
+    <t>答案</t>
+  </si>
+  <si>
+    <t>考点解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所用技巧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第38题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年国家公务员录用考试《行测》题（地市级网友回忆版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正A
+错B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联主体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二空承接上下文，遇到困难应有克服困难之意。“自强不息”最贴切，稳扎稳打比较中立没有奋斗的那种意思。
+【要结合语境】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>培育强大的创新实力，中小企业要有“十年磨一剑”的</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和志气。要克服融资难、原料贵、订单少等重重困难，持续投入，迎难而上，才能在</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中迈上发展新台阶。当前，一家家优质中小企业在自主创新的道路上</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，勇毅前行，成长为能打硬仗的科技尖兵、稳链强链的有生力量。
+依次填入画横线部分最恰当的一项是：
+A. 定力 厚积薄发 自强不息
+B. 决心 卧薪尝胆 稳扎稳打
+C. 耐性 筚路蓝缕 兢兢业业
+D. 智慧 山重水复 步步为营</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>注册制改革越包容，市场主体越要</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。随着注册制全面推进，新股上市数量势必增多，上市公司“</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”的时代一去不返。将自身相关信息说完整、说清楚，既是上市公司的法定责任，也是逐浪资本市场的立身之本。因此，企业应提升</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3C464F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和竞争意识，高度负责、抱诚守真地“自我介绍”。
+依次填入画横线部分最恰当的一项是：
+A.自律 待价而沽 紧迫感
+B.自重 滥竽充数 使命感
+C.自觉 奇货可居 危机感
+D.自强 一枝独秀 责任感</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正C
+错A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年国家公务员录用考试《行测》题（副省级网友回忆版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第33题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联主体
+结合成语含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇货可居与待价而沽的具体意思不清楚，所以选错。奇货可居有稀有之意，待价而沽没有这个意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,6 +261,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3C464F"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF3C464F"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -40,7 +292,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,12 +300,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -69,49 +354,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>227200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>115413</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="11200000" cy="6333333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,32 +643,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="80.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="156.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="156.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/其他/省考/错题记录.xlsx
+++ b/其他/省考/错题记录.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
   </bookViews>
   <sheets>
-    <sheet name="省考错题" sheetId="2" r:id="rId1"/>
+    <sheet name="言语" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>试卷</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +242,67 @@
   </si>
   <si>
     <t>奇货可居与待价而沽的具体意思不清楚，所以选错。奇货可居有稀有之意，待价而沽没有这个意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>①同样，市场规模更大的企业将能够更好地摊薄其供应链成本，从而在低毛利环境中生存下来，打败竞争对手
+②有些生鲜平台称呼其商业模式为“自来水模式”，立志要让好的食材像自来水一样，触手可得
+③在互联网领域，生鲜电商能否盈利不是问题，谁能成为最后的赢家才是问题
+④由于生鲜电商平台具备很强的消费者粘性，先占据更多核心区消费者的企业便能获得先发优势，后进入者往往需要付出更高的获客成本
+⑤这种现象在经济学上被称作“自然垄断”，即某些产品和服务由单个企业大规模生产经营比多个企业同时生产经营更有效率
+⑥而“自来水行业”便是自然垄断最普遍出现的行业
+将以上6个句子重新排列，语序正确的是：
+A.②⑤⑥①④③
+B.②④⑤①③⑥
+C.④①⑤②⑥③
+D.④⑤③①②⑥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年国家公务员录用考试《行测》题（行政执法卷网友回忆版）第51题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第51题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序，查找配套语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过6,3排序，1，4排序推出了结果C
+太久没对已经忘记错误点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颠覆性技术在军事领域的应用，使现代空袭作战向陆、海、空、天、电、网等领域发展。电子战飞机、预警指挥机在现代空袭体系中的作用愈发重要；第四代隐身飞机投入实战大大增强了空袭体系的突防能力；空射导弹等精确制导弹药智能化水平、抗干扰能力和目标识别能力增强，作战效能大大提高。未来将进一步提高精确制导弹药的命中精度，空袭体系的精确打击能力将进一步增强。同时，运用小型或超小型无人机，在战场上对重要目标实施“蜂群”式打击，会给重要目标的防护造成很大困难。
+这段文字意在说明：
+A颠覆性技术提高了空袭作战的综合打击能力
+B军事领域的颠覆性技术研究取得突破性进展
+C精确打击能力的增强提升了空袭作战的效能
+D智能化时代的空中防御体系面临着空前挑战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确D
+错误A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联主体，注意标点符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023年国家公务员录用考试《行测》题（行政执法卷网友回忆版）第59题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”颠覆性技术“是干扰项。根据几个分号";"判断"颠覆性技术"属于并列句，非主旨句，再关联主体，选D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,9 +392,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -339,12 +400,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -643,100 +735,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="80.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="40" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="11.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="80.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="156.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:7" ht="148.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="156.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:7" ht="148.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="247.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="198" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/其他/省考/错题记录.xlsx
+++ b/其他/省考/错题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="言语" sheetId="2" r:id="rId1"/>
@@ -737,19 +737,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="80.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="11.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="80.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="40" style="2" customWidth="1"/>
     <col min="7" max="7" width="16" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.90625" style="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="156.6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -809,7 +809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="148.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="156.6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -832,7 +832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="247.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="261" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -855,7 +855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="198" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="208.8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
